--- a/01_Dataset_Cleaned/NewDataset_YW_C.xlsx
+++ b/01_Dataset_Cleaned/NewDataset_YW_C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/InSync/2021_MPIE/2021-12_H Diffusion/Matlab Toolbox HEA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D7C4F-4265-6049-A5CE-8230F48DAB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBC37CE-8B60-9B4D-AADB-C054D791292F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="12380" windowWidth="28560" windowHeight="21100" xr2:uid="{194B26E4-9AF2-1949-9376-FC37CDA25FB1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37420" windowHeight="21100" xr2:uid="{194B26E4-9AF2-1949-9376-FC37CDA25FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,12 +185,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -226,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -249,23 +243,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -276,17 +259,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -605,7 +592,7 @@
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA13"/>
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,6 +621,7 @@
     <col min="24" max="24" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -715,7 +703,7 @@
       <c r="Z1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -726,49 +714,49 @@
       <c r="B2" s="2">
         <v>13.9</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>35.6</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="5">
         <v>45.5</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="5">
         <v>3.98</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8">
         <v>25</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="8">
         <v>1</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="8">
         <v>7</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z2" s="7">
         <v>904</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -788,40 +776,40 @@
       <c r="E3" s="2">
         <v>5.8</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="2">
         <v>1.06</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8">
         <v>25</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="8">
         <v>1</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="8">
         <v>7</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z3" s="7">
         <v>916</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -841,40 +829,40 @@
       <c r="E4" s="2">
         <v>3.5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
       <c r="P4" s="2">
         <v>0.95</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4">
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8">
         <v>25</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="8">
         <v>1</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="8">
         <v>7</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z4" s="7">
         <v>911</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -894,40 +882,40 @@
       <c r="E5" s="2">
         <v>2.5</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="2">
         <v>0.36</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4">
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8">
         <v>25</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="8">
         <v>1</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="8">
         <v>7</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z5" s="7">
         <v>985</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -947,40 +935,40 @@
       <c r="E6" s="2">
         <v>5.8</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="2">
         <v>1.6</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
         <v>25</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="8">
         <v>1</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="8">
         <v>7</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z6" s="7">
         <v>995</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1000,40 +988,40 @@
       <c r="E7" s="2">
         <v>0.69</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="2">
         <v>0.09</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8">
         <v>25</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="8">
         <v>1</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="8">
         <v>7</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z7" s="7">
         <v>65</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AA7" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1053,40 +1041,40 @@
       <c r="E8" s="2">
         <v>4.76</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="2">
         <v>3.75</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8">
         <v>25</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="8">
         <v>1</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="8">
         <v>7</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z8" s="7">
         <v>185</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AA8" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1094,52 +1082,52 @@
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>14.8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>26.5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>30.1</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="4">
         <v>10.050000000000001</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4">
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8">
         <v>25</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="8">
         <v>1</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="8">
         <v>7</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z9" s="7">
         <v>1011</v>
       </c>
-      <c r="AA9" s="10" t="s">
+      <c r="AA9" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1147,52 +1135,52 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>15.8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>42.9</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="4">
         <v>7.2</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="4">
         <v>15.45</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4">
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8">
         <v>25</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="8">
         <v>1</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="8">
         <v>7</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z10" s="7">
         <v>1011</v>
       </c>
-      <c r="AA10" s="10" t="s">
+      <c r="AA10" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1200,52 +1188,52 @@
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>19.8</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>47.5</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="4">
         <v>4.8</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="5">
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4">
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8">
         <v>25</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="8">
         <v>1</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="8">
         <v>7</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z11" s="7">
         <v>1028</v>
       </c>
-      <c r="AA11" s="10" t="s">
+      <c r="AA11" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1253,52 +1241,52 @@
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>35.5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>6.1</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>55.4</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="4">
         <v>1</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="5">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="4">
         <v>1.5</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4">
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8">
         <v>25</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="8">
         <v>1</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="8">
         <v>7</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z12" s="7">
         <v>70</v>
       </c>
-      <c r="AA12" s="10" t="s">
+      <c r="AA12" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1306,52 +1294,52 @@
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>42.1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>36.1</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="4">
         <v>8.1</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4">
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8">
         <v>25</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="8">
         <v>1</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="8">
         <v>7</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="8">
         <v>0.33329999999999999</v>
       </c>
       <c r="Z13" s="7">
         <v>138</v>
       </c>
-      <c r="AA13" s="10" t="s">
+      <c r="AA13" s="8" t="s">
         <v>40</v>
       </c>
     </row>
